--- a/data/thicknesses_vs_sed_shape_size_dist.xlsx
+++ b/data/thicknesses_vs_sed_shape_size_dist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55053B51-ED81-4479-BE44-2B258DD7CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344254BD-612E-45E3-A915-8395C6B84C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C70357F-54FD-4099-AD6F-135CA473ED5D}"/>
   </bookViews>
@@ -3437,25 +3437,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4256E-3</c:v>
+                  <c:v>0.14255999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0807200000000001E-3</c:v>
+                  <c:v>0.108072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5096106666666665E-2</c:v>
+                  <c:v>5.0297492592592592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0950000000000017E-4</c:v>
+                  <c:v>7.0949999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3736040000000002E-2</c:v>
+                  <c:v>2.37839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8051500000000013E-2</c:v>
+                  <c:v>5.8051499999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1097600000000005E-3</c:v>
+                  <c:v>0.42963750000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4667,25 +4667,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4256E-3</c:v>
+                  <c:v>0.14255999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0807200000000001E-3</c:v>
+                  <c:v>0.108072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5096106666666665E-2</c:v>
+                  <c:v>5.0297492592592592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0950000000000017E-4</c:v>
+                  <c:v>7.0949999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3736040000000002E-2</c:v>
+                  <c:v>2.37839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8051500000000013E-2</c:v>
+                  <c:v>5.8051499999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1097600000000005E-3</c:v>
+                  <c:v>0.42963750000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9347,8 +9347,8 @@
   <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9594,7 +9594,8 @@
         <v>0.3</v>
       </c>
       <c r="AS3">
-        <v>1.4256E-3</v>
+        <f>AP3*AQ3*AR3</f>
+        <v>0.14255999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -9683,7 +9684,8 @@
         <v>0.18</v>
       </c>
       <c r="AS4">
-        <v>1.0807200000000001E-3</v>
+        <f t="shared" ref="AS4:AS9" si="3">AP4*AQ4*AR4</f>
+        <v>0.108072</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
@@ -9807,8 +9809,8 @@
         <v>0.96666666666666667</v>
       </c>
       <c r="AS5">
-        <f>AVERAGE(AM5,AG5,AA5)</f>
-        <v>5.5096106666666665E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.0297492592592592</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
@@ -9897,7 +9899,8 @@
         <v>0.3</v>
       </c>
       <c r="AS6">
-        <v>7.0950000000000017E-4</v>
+        <f t="shared" si="3"/>
+        <v>7.0949999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
@@ -9973,7 +9976,7 @@
         <v>5.7501599999999998E-3</v>
       </c>
       <c r="AC7">
-        <f t="shared" ref="AC7:AC9" si="3">AF7/(SQRT(AE7*AD7))</f>
+        <f t="shared" ref="AC7:AC9" si="4">AF7/(SQRT(AE7*AD7))</f>
         <v>0.25622875473962547</v>
       </c>
       <c r="AD7">
@@ -10005,8 +10008,8 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AS7">
-        <f>AVERAGE(AG7,AA7)</f>
-        <v>3.3736040000000002E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.37839</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
@@ -10095,7 +10098,8 @@
         <v>1.3</v>
       </c>
       <c r="AS8">
-        <v>5.8051500000000013E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.8051499999999994</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
@@ -10171,7 +10175,7 @@
         <v>5.5238400000000003E-3</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41602514716892181</v>
       </c>
       <c r="AD9">
@@ -10203,8 +10207,8 @@
         <v>0.3</v>
       </c>
       <c r="AS9">
-        <f>AVERAGE(AG9,AA9)</f>
-        <v>4.1097600000000005E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.42963750000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10217,8 +10221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26462F8E-8BA9-47E2-9018-ACD62A5E1BCC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10414,18 +10418,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10448,14 +10452,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D23B9EF-3D91-4EC8-AD14-C7D22BC873CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90378962-226D-48AD-AF54-AF2711771C82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10470,4 +10466,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D23B9EF-3D91-4EC8-AD14-C7D22BC873CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>